--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2591796.90063328</v>
+        <v>2753029.245056141</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.44564101</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324959</v>
+        <v>278692.0725916869</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4659357.504054395</v>
+        <v>4895144.054864584</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -674,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -716,13 +718,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>298.2688941779536</v>
+        <v>152.9637183229878</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -826,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6437502184299</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,19 +870,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>197.5327828622276</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -962,7 +964,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>304.6690714628783</v>
+        <v>176.6564488737094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1063,16 +1065,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>58.00154341157407</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1107,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>113.1418197872748</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>307.896053338104</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>219.0949503145304</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1291,13 +1293,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1306,7 +1308,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1342,22 +1344,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>107.473655941815</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>107.3792913045958</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1378,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>78.50202290885598</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1385,7 +1387,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112162</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1531,10 +1533,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>54.18430635300778</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1591,10 +1593,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>219.5141406214751</v>
       </c>
     </row>
     <row r="14">
@@ -1619,10 +1621,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1661,13 +1663,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>73.82194113362441</v>
+        <v>256.6300796561535</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1777,10 +1779,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>161.4887027346018</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2008,16 +2010,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>43.70143389869422</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2084,7 +2086,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773002</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2254,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2479,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2488,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2542,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>2.292363805516904</v>
       </c>
     </row>
     <row r="26">
@@ -2716,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>161.072347141068</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2962,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3013,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>198.6534743970087</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3266,13 +3268,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932885</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800145</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3323,16 +3325,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="36">
@@ -3424,16 +3426,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>22.56919457453878</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>46.47710458852467</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3472,7 +3474,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3503,25 +3505,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314795</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800145</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3560,16 +3562,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="39">
@@ -3670,16 +3672,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>35.34780583513513</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998732</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3740,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3749,16 +3751,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>129.0266605105543</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112165</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791314795</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="42">
@@ -3910,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3955,7 +3957,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>199.4521447952249</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3986,7 +3988,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>179.6403494963371</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -3995,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4037,13 +4039,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4138,22 +4140,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>109.142675762675</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>138.5031525665388</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>122.9742767430581</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>443.0234284442651</v>
+        <v>548.3728793740404</v>
       </c>
       <c r="C2" t="n">
-        <v>408.9213596680925</v>
+        <v>119.7912051113087</v>
       </c>
       <c r="D2" t="n">
-        <v>377.0519788829411</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E2" t="n">
-        <v>347.3176380816403</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F2" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4364,16 +4366,16 @@
         <v>1134.24202645431</v>
       </c>
       <c r="V2" t="n">
-        <v>771.6250763881362</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W2" t="n">
-        <v>770.8100258395735</v>
+        <v>729.3865718653431</v>
       </c>
       <c r="X2" t="n">
-        <v>469.5283145487113</v>
+        <v>574.8777654784867</v>
       </c>
       <c r="Y2" t="n">
-        <v>465.2825948887688</v>
+        <v>570.6320458185442</v>
       </c>
     </row>
     <row r="3">
@@ -4416,13 +4418,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8519551513676</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N3" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="O3" t="n">
         <v>739.9048540962709</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.4376660667899</v>
+        <v>766.5367714259833</v>
       </c>
       <c r="C4" t="n">
-        <v>340.8759545500149</v>
+        <v>593.9750599092082</v>
       </c>
       <c r="D4" t="n">
-        <v>174.9979617515375</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="E4" t="n">
-        <v>174.9979617515375</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4489,22 +4491,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M4" t="n">
-        <v>1146.964903885608</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N4" t="n">
-        <v>1567.017802830512</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4516,22 +4518,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="W4" t="n">
-        <v>705.2562847857771</v>
+        <v>966.0648349231828</v>
       </c>
       <c r="X4" t="n">
-        <v>705.2562847857771</v>
+        <v>766.5367714259833</v>
       </c>
       <c r="Y4" t="n">
-        <v>705.2562847857771</v>
+        <v>766.5367714259833</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>947.2202128354713</v>
+        <v>1379.443841960035</v>
       </c>
       <c r="C5" t="n">
-        <v>518.6385385727397</v>
+        <v>1345.341773183862</v>
       </c>
       <c r="D5" t="n">
-        <v>486.7691577875882</v>
+        <v>909.4319883583064</v>
       </c>
       <c r="E5" t="n">
-        <v>58.18748352485655</v>
+        <v>475.6572435166015</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>451.8302179662133</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>674.5331706342571</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1298.633954679037</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1922.734738723817</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720802</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657696</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2217.900228530734</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1958.677925847751</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1596.060975781578</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1595.245925233015</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1580.14386585273</v>
       </c>
       <c r="Y5" t="n">
-        <v>1373.519783320379</v>
+        <v>1401.703008404538</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174123</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.1680387732647</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>674.5331706342571</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1298.633954679037</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>851.7801684713901</v>
+        <v>871.4687364409378</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>698.9070249241628</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>533.0290321256855</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>363.2710283764227</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>304.6836107889742</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>139.0923358148019</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148019</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>266.2978593068846</v>
       </c>
       <c r="L7" t="n">
-        <v>33.94366860160834</v>
+        <v>684.5077410748456</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750586</v>
+        <v>1143.991608255759</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1586.250411413403</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2005.919660639185</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.426554609526</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179231</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2340.960139477227</v>
       </c>
       <c r="T7" t="n">
-        <v>1516.524240083786</v>
+        <v>2095.080693055682</v>
       </c>
       <c r="U7" t="n">
-        <v>1238.091239336891</v>
+        <v>2095.080693055682</v>
       </c>
       <c r="V7" t="n">
-        <v>1238.091239336891</v>
+        <v>1808.125184926113</v>
       </c>
       <c r="W7" t="n">
-        <v>966.0648349231828</v>
+        <v>1536.098780512404</v>
       </c>
       <c r="X7" t="n">
-        <v>851.7801684713901</v>
+        <v>1290.707025845817</v>
       </c>
       <c r="Y7" t="n">
-        <v>851.7801684713901</v>
+        <v>1063.287355159925</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.8932738874814</v>
+        <v>1456.941072251152</v>
       </c>
       <c r="C8" t="n">
-        <v>119.7912051113087</v>
+        <v>1422.839003474979</v>
       </c>
       <c r="D8" t="n">
-        <v>87.92182432615731</v>
+        <v>1201.530972854241</v>
       </c>
       <c r="E8" t="n">
-        <v>58.18748352485655</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>267.8706684926505</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>2306.628825816691</v>
       </c>
       <c r="X8" t="n">
-        <v>873.1855120707613</v>
+        <v>1887.486362396002</v>
       </c>
       <c r="Y8" t="n">
-        <v>464.8993883704147</v>
+        <v>1479.200238695656</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N9" t="n">
-        <v>319.8519551513677</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>464.9019468393491</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>464.9019468393491</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>464.9019468393491</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>464.9019468393491</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>288.1948928011053</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>813.4916901053949</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>813.4916901053949</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1516.524240083786</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1238.091239336891</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1238.091239336891</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1129.531990910815</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="X10" t="n">
-        <v>884.1402362442279</v>
+        <v>1432.7419264702</v>
       </c>
       <c r="Y10" t="n">
-        <v>656.7205655583361</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2148.297048386133</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1710.154575569557</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1274.244790744001</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1194.949818108793</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>767.0823885180007</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H11" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L11" t="n">
-        <v>433.7729841410239</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M11" t="n">
-        <v>1375.975947634832</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N11" t="n">
-        <v>2318.17891112864</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3260.381874622449</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>3260.381874622449</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3806.880660581043</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3806.880660581043</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3806.880660581043</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3402.025205992077</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2982.882742571388</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2574.596618871041</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O12" t="n">
-        <v>919.6542082112317</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P12" t="n">
-        <v>1739.37737469043</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1739.37737469043</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>785.6314506292333</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C13" t="n">
-        <v>613.0697391124583</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D13" t="n">
-        <v>558.3381165336625</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E13" t="n">
-        <v>558.3381165336625</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F13" t="n">
-        <v>381.6310624954187</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G13" t="n">
-        <v>216.0397875212464</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
-        <v>76.13761321162086</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2533.555854412417</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2287.676407990873</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2009.243407243978</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.287899114408</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1450.2614947007</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.869740034112</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y13" t="n">
-        <v>977.4500693482205</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1812.24883465911</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1374.106361842533</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>938.1965770169779</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>504.4218321752731</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>76.55440258448085</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>76.55440258448085</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L14" t="n">
-        <v>76.13761321162086</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M14" t="n">
-        <v>1018.340576705429</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N14" t="n">
-        <v>1960.543540199237</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>3503.161559637919</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>3428.593942331227</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3065.976992265054</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3065.976992265054</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>2646.834528844365</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2238.548405144018</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O15" t="n">
-        <v>1018.340576705429</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P15" t="n">
-        <v>1081.465657964015</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>926.6336502885522</v>
+        <v>3484.309241800689</v>
       </c>
       <c r="C16" t="n">
-        <v>754.0719387717771</v>
+        <v>3311.747530283913</v>
       </c>
       <c r="D16" t="n">
-        <v>588.1939459732998</v>
+        <v>3145.869537485436</v>
       </c>
       <c r="E16" t="n">
-        <v>418.435942224037</v>
+        <v>2976.111533736173</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7288881857932</v>
+        <v>2799.40447969793</v>
       </c>
       <c r="G16" t="n">
-        <v>76.13761321162086</v>
+        <v>2636.284577945807</v>
       </c>
       <c r="H16" t="n">
-        <v>76.13761321162086</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162086</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763107</v>
+        <v>2582.962088800871</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>2857.720543372006</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>3275.930425139967</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>3735.41429232088</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>4177.673095478524</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>4597.342344704307</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>4944.849238674648</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.797223114421</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S16" t="n">
-        <v>2674.558054071736</v>
+        <v>4953.800644836977</v>
       </c>
       <c r="T16" t="n">
-        <v>2428.678607650191</v>
+        <v>4707.921198415433</v>
       </c>
       <c r="U16" t="n">
-        <v>2150.245606903296</v>
+        <v>4707.921198415433</v>
       </c>
       <c r="V16" t="n">
-        <v>1863.290098773727</v>
+        <v>4420.965690285863</v>
       </c>
       <c r="W16" t="n">
-        <v>1591.263694360019</v>
+        <v>4148.939285872155</v>
       </c>
       <c r="X16" t="n">
-        <v>1345.871939693431</v>
+        <v>3903.547531205567</v>
       </c>
       <c r="Y16" t="n">
-        <v>1118.452269007539</v>
+        <v>3676.127860519676</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5519,46 +5521,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5604,10 +5606,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N18" t="n">
-        <v>828.6046571760505</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O18" t="n">
-        <v>828.6046571760505</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P18" t="n">
         <v>1648.327823655249</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883914</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1929661716164</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D19" t="n">
-        <v>473.3149733731391</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E19" t="n">
-        <v>303.5569696238763</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F19" t="n">
-        <v>126.8499155856325</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5740,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5750,31 +5752,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722817</v>
@@ -5829,28 +5831,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>751.6989919312866</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N21" t="n">
-        <v>751.6989919312866</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5993,22 +5995,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6075,13 +6077,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731391</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238763</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856325</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6312,19 +6314,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>949.5782250957668</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>777.0165135789917</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
         <v>614.3171730324584</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6464,22 +6466,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>475.2748675296854</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>475.2748675296854</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M29" t="n">
-        <v>1632.322702740236</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176683</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6549,13 +6551,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N30" t="n">
-        <v>1336.088111831086</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O30" t="n">
-        <v>1336.088111831086</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1015.727725908489</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C31" t="n">
-        <v>843.1660143917137</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D31" t="n">
-        <v>677.2880215932364</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
-        <v>507.5300178439736</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>330.8229638057298</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6649,22 +6651,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X31" t="n">
-        <v>1434.966015313368</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y31" t="n">
-        <v>1207.546344627476</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="32">
@@ -6704,22 +6706,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6777,28 +6779,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.552685307369</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.552685307369</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.552685307369</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.552685307369</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.552685307369</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6923,10 +6925,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6941,43 +6943,43 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>1177.320806523639</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M35" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N35" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
         <v>2955.199618136697</v>
@@ -7011,19 +7013,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M36" t="n">
-        <v>128.3245134312372</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N36" t="n">
         <v>287.8657185439749</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>949.5782250957668</v>
+        <v>790.3368563937565</v>
       </c>
       <c r="C37" t="n">
-        <v>777.0165135789917</v>
+        <v>790.3368563937565</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420839</v>
+        <v>624.4588635952792</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>454.7008598460165</v>
       </c>
       <c r="F37" t="n">
         <v>407.7542895545774</v>
@@ -7105,40 +7107,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113116</v>
       </c>
       <c r="O37" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338898</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.72767530924</v>
       </c>
       <c r="Q37" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173572</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2697.502628878944</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176941</v>
       </c>
       <c r="T37" t="n">
-        <v>2451.623182457406</v>
+        <v>2292.381813755396</v>
       </c>
       <c r="U37" t="n">
-        <v>2173.190181710511</v>
+        <v>2013.948813008501</v>
       </c>
       <c r="V37" t="n">
-        <v>1886.234673580942</v>
+        <v>1726.993304878931</v>
       </c>
       <c r="W37" t="n">
-        <v>1614.208269167233</v>
+        <v>1454.966900465223</v>
       </c>
       <c r="X37" t="n">
-        <v>1368.816514500646</v>
+        <v>1209.575145798636</v>
       </c>
       <c r="Y37" t="n">
-        <v>1141.396843814754</v>
+        <v>982.1554751127437</v>
       </c>
     </row>
     <row r="38">
@@ -7160,37 +7162,37 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>1612.575493976557</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M38" t="n">
-        <v>2769.623329187108</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N38" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>4875.533979193861</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4875.533979193861</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
         <v>4943.887948785925</v>
@@ -7214,7 +7216,7 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
         <v>2955.199618136697</v>
@@ -7257,16 +7259,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O39" t="n">
-        <v>287.8657185439749</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883914</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C40" t="n">
-        <v>639.1929661716164</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D40" t="n">
-        <v>473.3149733731391</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E40" t="n">
-        <v>303.5569696238763</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>5077.485521609701</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>4799.052520862807</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>4512.097012733238</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>4240.070608319529</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>3994.678853652942</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2204.822561740649</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1766.680088924072</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1330.770304098517</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>896.9955592568117</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G41" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>378.5120080483794</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L41" t="n">
-        <v>378.5120080483794</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M41" t="n">
-        <v>1320.714971542188</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N41" t="n">
-        <v>2262.917935035995</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>3806.880660581043</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>3444.26371051487</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3039.408255925903</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3039.408255925903</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2631.122132225556</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J42" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K42" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L42" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M42" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N42" t="n">
-        <v>261.7424914848164</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O42" t="n">
-        <v>261.7424914848164</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.6336502885522</v>
+        <v>875.8255515988633</v>
       </c>
       <c r="C43" t="n">
-        <v>754.0719387717771</v>
+        <v>703.2638400820882</v>
       </c>
       <c r="D43" t="n">
-        <v>588.1939459732998</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E43" t="n">
-        <v>418.435942224037</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F43" t="n">
-        <v>241.7288881857932</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G43" t="n">
-        <v>76.13761321162086</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H43" t="n">
-        <v>76.13761321162086</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2674.558054071736</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2428.678607650191</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2150.245606903296</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1863.290098773727</v>
+        <v>1812.482000084038</v>
       </c>
       <c r="W43" t="n">
-        <v>1591.263694360019</v>
+        <v>1540.45559567033</v>
       </c>
       <c r="X43" t="n">
-        <v>1345.871939693431</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y43" t="n">
-        <v>1118.452269007539</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2255.947500110126</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1817.80502729355</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1381.895242467994</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>948.1204976262893</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>511.3923006645387</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>1345.742592622717</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>1345.742592622717</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M44" t="n">
-        <v>1345.742592622717</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N44" t="n">
-        <v>1345.742592622717</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O44" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>3723.22878676488</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>3464.006484081897</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3101.389534015723</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3101.389534015723</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2682.247070595034</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2682.247070595034</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J45" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K45" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L45" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M45" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N45" t="n">
-        <v>797.1744111966217</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O45" t="n">
-        <v>1739.37737469043</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P45" t="n">
-        <v>1739.37737469043</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1739.37737469043</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1066.535824598178</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C46" t="n">
-        <v>893.9741130814026</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D46" t="n">
-        <v>728.0961202829253</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="E46" t="n">
-        <v>558.3381165336625</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="F46" t="n">
-        <v>381.6310624954187</v>
+        <v>441.0680908387445</v>
       </c>
       <c r="G46" t="n">
-        <v>216.0397875212464</v>
+        <v>330.8229638057394</v>
       </c>
       <c r="H46" t="n">
-        <v>76.13761321162086</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2692.797223114421</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2568.580781959817</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2290.147781212922</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>2003.192273083353</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W46" t="n">
-        <v>1731.165868669644</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X46" t="n">
-        <v>1485.774114003057</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y46" t="n">
-        <v>1258.354443317165</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
   </sheetData>
@@ -8064,16 +8066,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>288.7962490401609</v>
       </c>
-      <c r="N3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8137,25 +8139,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>131.4804315655613</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8225,16 +8227,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684646</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684648</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>434.0712383807927</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8304,16 +8306,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684646</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684648</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>300.8741568635446</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,16 +8376,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>218.0459320377853</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8462,16 +8464,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8541,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8617,13 +8619,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8693,25 +8695,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>361.2478494236395</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M11" t="n">
-        <v>951.7201651452608</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>951.7201651452608</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8781,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>852.0369646460716</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P12" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,16 +8932,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M14" t="n">
-        <v>951.7201651452608</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>951.7201651452608</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>305.4286816532915</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9018,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>951.7201651452608</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
-        <v>63.76270834200568</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9167,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9252,13 +9254,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>733.6806231366373</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9398,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9477,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9486,13 +9488,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>328.1614411053482</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>315.3936483072348</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9653,13 +9655,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,16 +9725,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9875,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9887,16 +9889,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>376.7818457160665</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10127,10 +10129,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10197,16 +10199,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P30" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10352,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10364,13 +10366,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,10 +10427,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>664.5938549921407</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10601,13 +10603,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10671,10 +10673,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="N36" t="n">
-        <v>161.1527324371088</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10820,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10838,10 +10840,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>69.04441372935707</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10905,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>51.29797569827247</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11060,19 +11062,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>305.4286816532915</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>951.7201651452608</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>951.7201651452608</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11148,10 +11150,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
@@ -11294,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>926.4397398113929</v>
+        <v>110.0804674982792</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11385,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>728.3199979646474</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>951.7201651452608</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23264,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>350.9349744844318</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23419,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0349065174848</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>5.631333357557651</v>
       </c>
     </row>
     <row r="14">
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,13 +23551,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.8081385225288</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23665,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2.446659489828818</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,13 +23703,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23896,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>124.3589898130759</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,10 +24177,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>34.67467827192567</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.8531101735159</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>3.146865729424547</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>44.28436272291293</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>141.6500182959537</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>128.4628789093367</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>208.2197249473419</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25637,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>294.56209478433</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>84.6338082530489</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25874,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>243.9484057985472</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>54.79268646175559</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>120.4463752142712</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>340788.3677312199</v>
+        <v>421486.0673098819</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>340788.3677312199</v>
+        <v>421486.0673098819</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>421486.0673098819</v>
+        <v>421486.0673098817</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>421486.0673098819</v>
+        <v>421486.0673098817</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>340788.3677312199</v>
+        <v>421486.0673098819</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>340788.3677312199</v>
+        <v>421486.0673098817</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>509339.9538958882</v>
       </c>
       <c r="E2" t="n">
-        <v>404686.1866808239</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="F2" t="n">
-        <v>404686.1866808239</v>
+        <v>500514.7049304849</v>
       </c>
       <c r="G2" t="n">
-        <v>500514.7049304849</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="H2" t="n">
         <v>500514.7049304848</v>
       </c>
       <c r="I2" t="n">
+        <v>500514.7049304847</v>
+      </c>
+      <c r="J2" t="n">
         <v>500514.7049304848</v>
       </c>
-      <c r="J2" t="n">
-        <v>500514.7049304846</v>
-      </c>
       <c r="K2" t="n">
-        <v>500514.7049304847</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="L2" t="n">
         <v>500514.7049304848</v>
       </c>
       <c r="M2" t="n">
-        <v>500514.7049304848</v>
+        <v>500514.7049304845</v>
       </c>
       <c r="N2" t="n">
-        <v>500514.7049304848</v>
+        <v>500514.7049304849</v>
       </c>
       <c r="O2" t="n">
-        <v>404686.1866808239</v>
+        <v>500514.7049304849</v>
       </c>
       <c r="P2" t="n">
-        <v>404686.1866808239</v>
+        <v>500514.7049304845</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.7678950165</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998244</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636913</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>111014.4653449903</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877278</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622049</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,25 +26420,25 @@
         <v>169168.0932697598</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>121997.5637970937</v>
       </c>
       <c r="D4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>651.952034992386</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="F4" t="n">
-        <v>651.952034992386</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="G4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="I4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="J4" t="n">
         <v>806.3323907826023</v>
@@ -26448,16 +26450,16 @@
         <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907824711</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907825466</v>
       </c>
       <c r="O4" t="n">
-        <v>651.952034992386</v>
+        <v>806.3323907825726</v>
       </c>
       <c r="P4" t="n">
-        <v>651.952034992386</v>
+        <v>806.3323907824713</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26472,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800265</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138555.7718291961</v>
+        <v>138555.7718291962</v>
       </c>
       <c r="C6" t="n">
-        <v>280747.072488906</v>
+        <v>248798.4083957754</v>
       </c>
       <c r="D6" t="n">
-        <v>280747.072488906</v>
+        <v>310095.4275658974</v>
       </c>
       <c r="E6" t="n">
-        <v>188692.3536828957</v>
+        <v>239635.02471286</v>
       </c>
       <c r="F6" t="n">
-        <v>346169.6486049996</v>
+        <v>421990.1339339098</v>
       </c>
       <c r="G6" t="n">
-        <v>332490.3253275406</v>
+        <v>421990.1339339096</v>
       </c>
       <c r="H6" t="n">
         <v>421990.1339339097</v>
@@ -26543,25 +26545,25 @@
         <v>421990.1339339096</v>
       </c>
       <c r="J6" t="n">
-        <v>310975.6685889193</v>
+        <v>310975.6685889194</v>
       </c>
       <c r="K6" t="n">
-        <v>421990.1339339096</v>
+        <v>368944.2792951369</v>
       </c>
       <c r="L6" t="n">
-        <v>421990.1339339096</v>
+        <v>412597.8322072876</v>
       </c>
       <c r="M6" t="n">
-        <v>290553.8867764902</v>
+        <v>269789.962995922</v>
       </c>
       <c r="N6" t="n">
-        <v>421990.1339339096</v>
+        <v>421990.1339339098</v>
       </c>
       <c r="O6" t="n">
-        <v>346169.6486049996</v>
+        <v>421990.1339339098</v>
       </c>
       <c r="P6" t="n">
-        <v>346169.6486049996</v>
+        <v>421990.1339339095</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483603</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939234</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201046</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483603</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939234</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483603</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939234</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27394,7 +27396,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>116.6821446085288</v>
+        <v>261.9873204634946</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,16 +27548,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>35.29623327943145</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,19 +27590,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>45.40505425769408</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27682,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>99.53419100046477</v>
+        <v>227.5468135896337</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>116.9384400862873</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27827,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>129.7960173326468</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>114.1405214419547</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>212.4557366627695</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,10 +27912,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,22 +28064,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>161.8324844277564</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>117.766182674437</v>
       </c>
     </row>
     <row r="11">
@@ -34784,16 +34786,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>288.7962490401609</v>
       </c>
-      <c r="N3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34857,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>131.4804315655613</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34945,16 +34947,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684646</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684648</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>434.0712383807927</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35024,19 +35026,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684646</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684648</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>300.8741568635446</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,19 +35096,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>218.0459320377853</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35182,16 +35184,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35261,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,16 +35339,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35413,25 +35415,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>361.2478494236395</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M11" t="n">
-        <v>951.7201651452608</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>951.7201651452608</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35501,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>852.0369646460716</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P12" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35650,16 +35652,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M14" t="n">
-        <v>951.7201651452608</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>951.7201651452608</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>305.4286816532915</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35668,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35738,13 +35740,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>951.7201651452608</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
-        <v>63.76270834200568</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,13 +35819,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35889,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35972,13 +35974,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>733.6806231366373</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>328.1614411053482</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>315.3936483072348</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36361,7 +36363,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36373,13 +36375,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,16 +36445,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36595,28 +36597,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,10 +36834,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>376.7818457160665</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36847,10 +36849,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36917,16 +36919,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P30" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37072,7 +37074,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37084,13 +37086,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327043</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,19 +37159,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>664.5938549921407</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,7 +37311,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37321,13 +37323,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37391,10 +37393,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="N36" t="n">
-        <v>161.1527324371088</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37473,7 +37475,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637955933</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512943</v>
@@ -37540,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>69.04441372935707</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37625,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37634,10 +37636,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>51.29797569827247</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,19 +37782,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>305.4286816532915</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>951.7201651452608</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>951.7201651452608</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37801,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37868,10 +37870,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>926.4397398113929</v>
+        <v>110.0804674982792</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38038,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,19 +38107,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>728.3199979646474</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>951.7201651452608</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2753029.245056141</v>
+        <v>2752504.062687109</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916869</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4895144.054864584</v>
+        <v>4895144.054864586</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>322.6492950626189</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -670,16 +670,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>152.9637183229878</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -876,16 +876,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>197.5327828622276</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>153.3851081999875</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>264.62554180769</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
@@ -910,10 +910,10 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>176.6564488737094</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1065,13 +1065,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>58.00154341157407</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>126.4822118710423</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1107,7 +1107,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>219.0949503145304</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>129.4758400432339</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1353,13 +1353,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>107.3792913045958</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112162</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1435,7 +1435,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864827</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1545,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1578,7 +1578,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>39.88277234054614</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1590,13 +1590,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>219.5141406214751</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>422.036574780059</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1663,7 +1663,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561535</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>161.4887027346018</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>131.5141848153389</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1855,7 +1855,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948845</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2010,10 +2010,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>43.70143389869422</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -2022,7 +2022,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>72.13424985736003</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2086,7 +2086,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869773002</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2250,16 +2250,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>169.7914649777112</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>122.9742767430576</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2478,10 +2478,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>59.41244209702454</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2532,7 +2532,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2544,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.292363805516904</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2721,7 +2721,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2781,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>6.133574646794441</v>
       </c>
     </row>
     <row r="29">
@@ -2952,16 +2952,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>122.9229677259526</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
@@ -2970,7 +2970,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>86.91406253606259</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3268,13 +3268,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932885</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800145</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3328,13 +3328,13 @@
         <v>358.9907805655118</v>
       </c>
       <c r="W35" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3426,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3435,7 +3435,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>46.47710458852467</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3444,7 +3444,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>122.1591039832982</v>
       </c>
     </row>
     <row r="38">
@@ -3505,25 +3505,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791314795</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800145</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>19.80087630034361</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>35.20092700998732</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3726,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3742,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3757,10 +3757,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112165</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791314795</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3957,7 +3957,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>199.4521447952249</v>
+        <v>56.72042565247631</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3991,7 +3991,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>397.383853062969</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -4140,19 +4140,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>6.133574646794328</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>109.142675762675</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665388</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>548.3728793740404</v>
+        <v>1250.721030006719</v>
       </c>
       <c r="C2" t="n">
-        <v>119.7912051113087</v>
+        <v>924.8126511555888</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>892.9432703704374</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4339,43 +4339,43 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1134.24202645431</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1134.24202645431</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>729.3865718653431</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>574.8777654784867</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>570.6320458185442</v>
+        <v>1677.020600491627</v>
       </c>
     </row>
     <row r="3">
@@ -4418,10 +4418,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M3" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N3" t="n">
-        <v>453.9965675465116</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O3" t="n">
         <v>739.9048540962709</v>
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>766.5367714259833</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="C4" t="n">
-        <v>593.9750599092082</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="D4" t="n">
-        <v>428.0970671107308</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E4" t="n">
-        <v>428.0970671107308</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>1233.544589050298</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1233.544589050298</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U4" t="n">
-        <v>1238.091239336891</v>
+        <v>1259.509060631519</v>
       </c>
       <c r="V4" t="n">
-        <v>1238.091239336891</v>
+        <v>972.5535525019498</v>
       </c>
       <c r="W4" t="n">
-        <v>966.0648349231828</v>
+        <v>972.5535525019498</v>
       </c>
       <c r="X4" t="n">
-        <v>766.5367714259833</v>
+        <v>727.1617978353622</v>
       </c>
       <c r="Y4" t="n">
-        <v>766.5367714259833</v>
+        <v>572.2273451081021</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1379.443841960035</v>
+        <v>1267.176165140082</v>
       </c>
       <c r="C5" t="n">
-        <v>1345.341773183862</v>
+        <v>829.0336923235054</v>
       </c>
       <c r="D5" t="n">
-        <v>909.4319883583064</v>
+        <v>797.164311538354</v>
       </c>
       <c r="E5" t="n">
-        <v>475.6572435166015</v>
+        <v>363.3895666966491</v>
       </c>
       <c r="F5" t="n">
-        <v>451.8302179662133</v>
+        <v>339.5625411462609</v>
       </c>
       <c r="G5" t="n">
-        <v>50.43238658947718</v>
+        <v>339.5625411462609</v>
       </c>
       <c r="H5" t="n">
         <v>50.43238658947718</v>
@@ -4576,16 +4576,16 @@
         <v>50.43238658947718</v>
       </c>
       <c r="M5" t="n">
-        <v>50.43238658947718</v>
+        <v>674.5331706342571</v>
       </c>
       <c r="N5" t="n">
-        <v>674.5331706342571</v>
+        <v>1181.865694717427</v>
       </c>
       <c r="O5" t="n">
-        <v>1298.633954679037</v>
+        <v>1805.966478762207</v>
       </c>
       <c r="P5" t="n">
-        <v>1922.734738723817</v>
+        <v>1805.966478762207</v>
       </c>
       <c r="Q5" t="n">
         <v>2352.465264720802</v>
@@ -4603,16 +4603,16 @@
         <v>1958.677925847751</v>
       </c>
       <c r="V5" t="n">
-        <v>1596.060975781578</v>
+        <v>1958.677925847751</v>
       </c>
       <c r="W5" t="n">
-        <v>1595.245925233015</v>
+        <v>1957.862875299189</v>
       </c>
       <c r="X5" t="n">
-        <v>1580.14386585273</v>
+        <v>1538.720411878499</v>
       </c>
       <c r="Y5" t="n">
-        <v>1401.703008404538</v>
+        <v>1534.474692218557</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>50.43238658947718</v>
       </c>
       <c r="I6" t="n">
-        <v>50.43238658947718</v>
+        <v>76.49605974993477</v>
       </c>
       <c r="J6" t="n">
-        <v>50.43238658947718</v>
+        <v>76.49605974993477</v>
       </c>
       <c r="K6" t="n">
-        <v>50.43238658947718</v>
+        <v>76.49605974993477</v>
       </c>
       <c r="L6" t="n">
-        <v>50.43238658947718</v>
+        <v>700.5968437947147</v>
       </c>
       <c r="M6" t="n">
-        <v>50.43238658947718</v>
+        <v>700.5968437947147</v>
       </c>
       <c r="N6" t="n">
-        <v>50.43238658947718</v>
+        <v>700.5968437947147</v>
       </c>
       <c r="O6" t="n">
-        <v>674.5331706342571</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1298.633954679037</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
         <v>1596.499369973946</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>871.4687364409378</v>
+        <v>1117.348182862483</v>
       </c>
       <c r="C7" t="n">
-        <v>698.9070249241628</v>
+        <v>944.7864713457078</v>
       </c>
       <c r="D7" t="n">
-        <v>533.0290321256855</v>
+        <v>778.9084785472305</v>
       </c>
       <c r="E7" t="n">
-        <v>363.2710283764227</v>
+        <v>609.1504747979677</v>
       </c>
       <c r="F7" t="n">
-        <v>304.6836107889742</v>
+        <v>432.4434207597239</v>
       </c>
       <c r="G7" t="n">
-        <v>139.0923358148019</v>
+        <v>266.8521457855516</v>
       </c>
       <c r="H7" t="n">
         <v>139.0923358148019</v>
@@ -4725,7 +4725,7 @@
         <v>50.43238658947718</v>
       </c>
       <c r="J7" t="n">
-        <v>50.43238658947718</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
         <v>266.2978593068846</v>
@@ -4755,22 +4755,22 @@
         <v>2340.960139477227</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055682</v>
+        <v>2340.960139477227</v>
       </c>
       <c r="U7" t="n">
-        <v>2095.080693055682</v>
+        <v>2340.960139477227</v>
       </c>
       <c r="V7" t="n">
-        <v>1808.125184926113</v>
+        <v>2054.004631347658</v>
       </c>
       <c r="W7" t="n">
-        <v>1536.098780512404</v>
+        <v>1781.978226933949</v>
       </c>
       <c r="X7" t="n">
-        <v>1290.707025845817</v>
+        <v>1536.586472267362</v>
       </c>
       <c r="Y7" t="n">
-        <v>1063.287355159925</v>
+        <v>1309.16680158147</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1456.941072251152</v>
+        <v>1919.879325414605</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.839003474979</v>
+        <v>1481.736852598029</v>
       </c>
       <c r="D8" t="n">
-        <v>1201.530972854241</v>
+        <v>1045.827067772473</v>
       </c>
       <c r="E8" t="n">
-        <v>1171.796632052941</v>
+        <v>612.0523229307682</v>
       </c>
       <c r="F8" t="n">
-        <v>743.9292024621484</v>
+        <v>184.184893339976</v>
       </c>
       <c r="G8" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
         <v>53.40121652862856</v>
@@ -4816,40 +4816,40 @@
         <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>2307.443876365254</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W8" t="n">
-        <v>2306.628825816691</v>
+        <v>2365.526674939741</v>
       </c>
       <c r="X8" t="n">
-        <v>1887.486362396002</v>
+        <v>2350.424615559456</v>
       </c>
       <c r="Y8" t="n">
-        <v>1479.200238695656</v>
+        <v>2346.178895899513</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4986,25 +4986,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1678.133681136788</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1432.7419264702</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
         <v>1324.277995859497</v>
@@ -5029,10 +5029,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
         <v>102.6776296436396</v>
@@ -5086,7 +5086,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
         <v>1107.588885023173</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1041.416826573035</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C13" t="n">
-        <v>868.8551150562604</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>702.9771222577831</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>533.2191185085204</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>356.5120644702766</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H13" t="n">
         <v>190.9207894961043</v>
@@ -5226,25 +5226,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.261260176947</v>
+        <v>2657.217000252137</v>
       </c>
       <c r="T13" t="n">
-        <v>2292.381813755403</v>
+        <v>2411.337553830592</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.948813008508</v>
+        <v>2132.904553083697</v>
       </c>
       <c r="V13" t="n">
-        <v>1726.993304878938</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="W13" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X13" t="n">
-        <v>1454.96690046523</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y13" t="n">
-        <v>1233.235445292023</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="14">
@@ -5278,10 +5278,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K14" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L14" t="n">
         <v>306.120802776629</v>
@@ -5317,13 +5317,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1116.062450089081</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3484.309241800689</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>3311.747530283913</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>3145.869537485436</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>2976.111533736173</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>2799.40447969793</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>2636.284577945807</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H16" t="n">
-        <v>2496.382403636181</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>5113.04201353898</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>4953.800644836977</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>4707.921198415433</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>4707.921198415433</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V16" t="n">
-        <v>4420.965690285863</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W16" t="n">
-        <v>4148.939285872155</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X16" t="n">
-        <v>3903.547531205567</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>3676.127860519676</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5554,13 +5554,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>407.7542895545774</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5712,13 +5712,13 @@
         <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1654.13042623514</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="20">
@@ -5791,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.659051657336</v>
+        <v>1036.216302815308</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>863.6545912985331</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>697.7765985000558</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>528.018594750793</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2594.704009018975</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2594.704009018975</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U22" t="n">
-        <v>2316.271008272081</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V22" t="n">
-        <v>2029.315500142511</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W22" t="n">
-        <v>1757.289095728803</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.897341062215</v>
+        <v>1455.454592220187</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.477670376323</v>
+        <v>1228.034921534295</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="O24" t="n">
-        <v>1116.062450089081</v>
+        <v>426.819165236992</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1015.441008084184</v>
+        <v>1068.769857140658</v>
       </c>
       <c r="C25" t="n">
-        <v>842.8792965674086</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
         <v>842.8792965674086</v>
@@ -6138,7 +6138,7 @@
         <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
         <v>190.9207894961043</v>
@@ -6180,19 +6180,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1488.008146545537</v>
       </c>
       <c r="Y25" t="n">
-        <v>1207.259626803171</v>
+        <v>1260.588475859645</v>
       </c>
     </row>
     <row r="26">
@@ -6302,25 +6302,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1203.379615852385</v>
       </c>
     </row>
     <row r="29">
@@ -6469,22 +6469,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M29" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2594.704009018975</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2316.271008272081</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>2029.315500142511</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1757.289095728803</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.897341062215</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376323</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6776,25 +6776,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2683.3639582443</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1926.156830648849</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1654.13042623514</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6928,7 +6928,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6937,52 +6937,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L35" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937565</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>790.3368563937565</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>624.4588635952792</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>454.7008598460165</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7107,40 +7107,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.551532113116</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2203.220781338898</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.72767530924</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2718.920450173572</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878944</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176941</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755396</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008501</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878931</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.966900465223</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798636</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127437</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7180,46 +7180,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3575.440564248063</v>
+        <v>1035.728611060351</v>
       </c>
       <c r="C40" t="n">
-        <v>3402.878852731288</v>
+        <v>863.1668995435758</v>
       </c>
       <c r="D40" t="n">
-        <v>3237.000859932811</v>
+        <v>697.2889067450985</v>
       </c>
       <c r="E40" t="n">
-        <v>3067.242856183548</v>
+        <v>527.5309029958357</v>
       </c>
       <c r="F40" t="n">
-        <v>2890.535802145304</v>
+        <v>350.823848957592</v>
       </c>
       <c r="G40" t="n">
-        <v>2724.944527171132</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H40" t="n">
-        <v>2585.042352861507</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>5113.042013538981</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>5077.485521609701</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>4799.052520862807</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>4512.097012733238</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>4240.070608319529</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>3994.678853652942</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y40" t="n">
-        <v>3767.25918296705</v>
+        <v>1227.547229779338</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009657</v>
@@ -7399,13 +7399,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7414,37 +7414,37 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>306.1208027766299</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M41" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
         <v>4187.4836598467</v>
@@ -7453,7 +7453,7 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
         <v>2955.199618136697</v>
@@ -7487,25 +7487,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
         <v>1107.588885023173</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>875.8255515988633</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C43" t="n">
-        <v>703.2638400820882</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D43" t="n">
-        <v>537.3858472836109</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E43" t="n">
-        <v>367.6278435343481</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F43" t="n">
-        <v>190.9207894961043</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G43" t="n">
         <v>190.9207894961043</v>
@@ -7593,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1812.482000084038</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W43" t="n">
-        <v>1540.45559567033</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X43" t="n">
-        <v>1295.063841003742</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y43" t="n">
-        <v>1067.64417031785</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7654,13 +7654,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M44" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N44" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
         <v>3569.079287993933</v>
@@ -7724,25 +7724,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
         <v>1107.588885023173</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.3368563937634</v>
+        <v>1017.756527079655</v>
       </c>
       <c r="C46" t="n">
-        <v>617.7751448769883</v>
+        <v>845.1948155628801</v>
       </c>
       <c r="D46" t="n">
-        <v>617.7751448769883</v>
+        <v>679.3168227644028</v>
       </c>
       <c r="E46" t="n">
-        <v>617.7751448769883</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>441.0680908387445</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057394</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H46" t="n">
         <v>190.9207894961043</v>
@@ -7851,7 +7851,7 @@
         <v>1209.575145798642</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1554751127505</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
   </sheetData>
@@ -7987,22 +7987,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8066,13 +8066,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="O3" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>288.7962490401609</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -8136,25 +8136,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>298.4303698644312</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8224,19 +8224,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.4048323684646</v>
       </c>
       <c r="N5" t="n">
-        <v>630.4048323684646</v>
+        <v>512.4570950335052</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684648</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684647</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>434.0712383807927</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>630.4048323684646</v>
+        <v>358.7510985324808</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684648</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>300.8741568635446</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>218.0459320377853</v>
+        <v>130.5917045987046</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8464,19 +8464,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>537.6417914809772</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,16 +9491,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>315.3936483072348</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9716,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>655.9981329904112</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10129,13 +10129,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,13 +10439,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10661,19 +10661,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>301.5463146682411</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>51.29797569827247</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11062,10 +11062,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11311,7 +11311,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>110.0804674982792</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>117.7661826744372</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.631333357557651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.446659489828818</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>111.4236523045828</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>124.3589898130759</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>197.1718905122113</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>5.148518520150162</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>34.67467827192567</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>111.4236523045828</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.8531101735159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>219.0118993322384</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>47.91312667565475</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>197.1718905122112</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>128.4628789093367</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>102.9863699957346</v>
       </c>
     </row>
     <row r="38">
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>144.134485924087</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>208.2197249473419</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>84.6338082530489</v>
+        <v>227.3655273957975</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>161.9268490649758</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>54.79268646175559</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>421486.0673098817</v>
+        <v>421486.0673098819</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>421486.0673098817</v>
+        <v>421486.0673098819</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>421486.0673098817</v>
+        <v>421486.0673098819</v>
       </c>
     </row>
   </sheetData>
@@ -26319,16 +26319,16 @@
         <v>509339.9538958882</v>
       </c>
       <c r="D2" t="n">
-        <v>509339.9538958882</v>
+        <v>509339.953895888</v>
       </c>
       <c r="E2" t="n">
+        <v>500514.7049304849</v>
+      </c>
+      <c r="F2" t="n">
         <v>500514.7049304848</v>
       </c>
-      <c r="F2" t="n">
-        <v>500514.7049304849</v>
-      </c>
       <c r="G2" t="n">
-        <v>500514.7049304848</v>
+        <v>500514.7049304847</v>
       </c>
       <c r="H2" t="n">
         <v>500514.7049304848</v>
@@ -26337,25 +26337,25 @@
         <v>500514.7049304847</v>
       </c>
       <c r="J2" t="n">
+        <v>500514.7049304847</v>
+      </c>
+      <c r="K2" t="n">
+        <v>500514.7049304847</v>
+      </c>
+      <c r="L2" t="n">
+        <v>500514.7049304847</v>
+      </c>
+      <c r="M2" t="n">
         <v>500514.7049304848</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>500514.7049304848</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>500514.7049304848</v>
       </c>
-      <c r="M2" t="n">
-        <v>500514.7049304845</v>
-      </c>
-      <c r="N2" t="n">
-        <v>500514.7049304849</v>
-      </c>
-      <c r="O2" t="n">
-        <v>500514.7049304849</v>
-      </c>
       <c r="P2" t="n">
-        <v>500514.7049304845</v>
+        <v>500514.7049304847</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.7678950165</v>
+        <v>66587.76789501654</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998244</v>
+        <v>11527.59554998241</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210497</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877278</v>
+        <v>53045.85463877281</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622049</v>
+        <v>9392.301726622019</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379876</v>
@@ -26429,7 +26429,7 @@
         <v>806.3323907826023</v>
       </c>
       <c r="F4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="G4" t="n">
         <v>806.3323907826023</v>
@@ -26438,7 +26438,7 @@
         <v>806.3323907826023</v>
       </c>
       <c r="I4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="J4" t="n">
         <v>806.3323907826023</v>
@@ -26450,16 +26450,16 @@
         <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>806.3323907824711</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907825466</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>806.3323907825726</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="P4" t="n">
-        <v>806.3323907824713</v>
+        <v>806.3323907826023</v>
       </c>
     </row>
     <row r="5">
@@ -26490,7 +26490,7 @@
         <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138555.7718291962</v>
+        <v>138555.7718291961</v>
       </c>
       <c r="C6" t="n">
         <v>248798.4083957754</v>
       </c>
       <c r="D6" t="n">
-        <v>310095.4275658974</v>
+        <v>310095.4275658973</v>
       </c>
       <c r="E6" t="n">
-        <v>239635.02471286</v>
+        <v>239611.8003734774</v>
       </c>
       <c r="F6" t="n">
-        <v>421990.1339339098</v>
+        <v>421966.909594527</v>
       </c>
       <c r="G6" t="n">
-        <v>421990.1339339096</v>
+        <v>421966.9095945269</v>
       </c>
       <c r="H6" t="n">
-        <v>421990.1339339097</v>
+        <v>421966.909594527</v>
       </c>
       <c r="I6" t="n">
-        <v>421990.1339339096</v>
+        <v>421966.9095945269</v>
       </c>
       <c r="J6" t="n">
-        <v>310975.6685889194</v>
+        <v>310952.4442495367</v>
       </c>
       <c r="K6" t="n">
-        <v>368944.2792951369</v>
+        <v>368921.0549557541</v>
       </c>
       <c r="L6" t="n">
-        <v>412597.8322072876</v>
+        <v>412574.6078679049</v>
       </c>
       <c r="M6" t="n">
-        <v>269789.962995922</v>
+        <v>269766.7386565395</v>
       </c>
       <c r="N6" t="n">
-        <v>421990.1339339098</v>
+        <v>421966.909594527</v>
       </c>
       <c r="O6" t="n">
-        <v>421990.1339339098</v>
+        <v>421966.909594527</v>
       </c>
       <c r="P6" t="n">
-        <v>421990.1339339095</v>
+        <v>421966.9095945269</v>
       </c>
     </row>
   </sheetData>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483603</v>
+        <v>206.1089748483604</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939234</v>
+        <v>37.11037423939223</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768882</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483603</v>
+        <v>206.1089748483604</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939234</v>
+        <v>37.11037423939223</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483603</v>
+        <v>206.1089748483604</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939234</v>
+        <v>37.11037423939223</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768882</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>111.111753025792</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27390,16 +27390,16 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>261.9873204634946</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>45.40505425769408</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>71.76036577904529</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>157.4110329723687</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>227.5468135896337</v>
       </c>
     </row>
     <row r="6">
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>116.9384400862873</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>12.02094069548697</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>212.4557366627695</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>267.9080130197348</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28073,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>117.766182674437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34707,22 +34707,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34786,13 +34786,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="O3" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>288.7962490401609</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -34856,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>298.4303698644312</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34944,19 +34944,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.4048323684646</v>
       </c>
       <c r="N5" t="n">
-        <v>630.4048323684646</v>
+        <v>512.4570950335052</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684648</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684647</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>434.0712383807927</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>630.4048323684646</v>
+        <v>358.7510985324808</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684648</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>300.8741568635446</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094343</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>218.0459320377853</v>
+        <v>130.5917045987046</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -35184,19 +35184,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35503,10 +35503,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35740,13 +35740,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>537.6417914809772</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35819,13 +35819,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35977,13 +35977,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,16 +36211,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>315.3936483072348</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36451,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>655.9981329904112</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36688,10 +36688,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36837,7 +36837,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36849,13 +36849,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37159,13 +37159,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37475,7 +37475,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637955933</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512943</v>
@@ -37548,7 +37548,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>301.5463146682411</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>51.29797569827247</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37715,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,10 +37782,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37873,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38022,7 +38022,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38031,7 +38031,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>110.0804674982792</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38110,10 +38110,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
